--- a/Postman API Testing.xlsx
+++ b/Postman API Testing.xlsx
@@ -5,23 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sunny\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sunny\Desktop\Postman zadatak\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDAF273-F27C-41FC-8660-8399C917CA2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E8F3DF-A0AC-4553-A634-FFBD3C43E4A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19785" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sablon" sheetId="1" r:id="rId1"/>
+    <sheet name="Sana" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
   <si>
     <t>Tip requesta</t>
   </si>
@@ -108,6 +107,156 @@
   </si>
   <si>
     <t>Pri logovanju postojeceg korisnika</t>
+  </si>
+  <si>
+    <t>token\response.json</t>
+  </si>
+  <si>
+    <t>verification\response.json</t>
+  </si>
+  <si>
+    <t>forgot\response.json</t>
+  </si>
+  <si>
+    <t>reset\response.json</t>
+  </si>
+  <si>
+    <t>users\response.json</t>
+  </si>
+  <si>
+    <t>users\post.json</t>
+  </si>
+  <si>
+    <t>delete\response.json</t>
+  </si>
+  <si>
+    <t>users\getusersid.json</t>
+  </si>
+  <si>
+    <t>patchUser\response.json</t>
+  </si>
+  <si>
+    <t>patchprofile\response1.json</t>
+  </si>
+  <si>
+    <t>getprofile\response.json</t>
+  </si>
+  <si>
+    <t>getcities\response.json</t>
+  </si>
+  <si>
+    <t>getcities\afterpost.json</t>
+  </si>
+  <si>
+    <t>getcities\byid.json</t>
+  </si>
+  <si>
+    <t>getcities\patch.json</t>
+  </si>
+  <si>
+    <t>getcities\delete.json</t>
+  </si>
+  <si>
+    <t>Verifiacija emaila</t>
+  </si>
+  <si>
+    <t>Reset sifre</t>
+  </si>
+  <si>
+    <t>Za novi token</t>
+  </si>
+  <si>
+    <t>passchanged.json</t>
+  </si>
+  <si>
+    <t>Response daje status 200, sto znaci da je grad uspesno izbrisan</t>
+  </si>
+  <si>
+    <t>Response daje status 200, sto znaci da je grad uspesno azuriran</t>
+  </si>
+  <si>
+    <t>Response daje status 200, sto znaci da je grad uspesno izabran po id-ju</t>
+  </si>
+  <si>
+    <t>Response daje status 200, sto znaci da je poslat email za resetovanje sifre</t>
+  </si>
+  <si>
+    <t>Response daje status 200, sto znaci da je sifra uspesno promenjena</t>
+  </si>
+  <si>
+    <t>Response daje status 200, sto znaci da je korisnik uspesno verifikovan</t>
+  </si>
+  <si>
+    <t>Kada korisnik zaboravi sifru, posalje mu se email za promenu sifre</t>
+  </si>
+  <si>
+    <t>Response daje status 200, sto znaci da je profil uspesno dovucen</t>
+  </si>
+  <si>
+    <t>Response daje status 200, sto znaci da je korisnik uspesno azuriran</t>
+  </si>
+  <si>
+    <t>Da se azurira profil sa novim podacima za sva polja</t>
+  </si>
+  <si>
+    <t>Da korisnik vidi podatke o svom profilu</t>
+  </si>
+  <si>
+    <t>Response daje status 200, sto znaci da je korisnik uspesno promenio sifru</t>
+  </si>
+  <si>
+    <t>Da korisnik promeni sifru</t>
+  </si>
+  <si>
+    <t>Response daje status 200, sto znaci da su gradovi uspesno prikazani</t>
+  </si>
+  <si>
+    <t>Response daje status 200, sto znaci da su odredjeni gradovi uspesno prikazani</t>
+  </si>
+  <si>
+    <t>Da se izlistaju svi gradovi, mora biti poslat admin token</t>
+  </si>
+  <si>
+    <t>Da se izlistaju svi gradovi isfiltrirani po nekom parametru, npr po imenu, mora biti poslat admin token</t>
+  </si>
+  <si>
+    <t>Da se doda grad, mora biti poslat admin token</t>
+  </si>
+  <si>
+    <t>Da se izbrise grad koji ima odredjeni id,  mora biti poslat admin token</t>
+  </si>
+  <si>
+    <t>Response daje status 201, sto znaci da je grad uspesno kreiran</t>
+  </si>
+  <si>
+    <t>Da se prikaze grad koji ima odredjeni id, mora biti poslat admin token</t>
+  </si>
+  <si>
+    <t>Response daje status 200, sto znaci da je token uspesno promenjen</t>
+  </si>
+  <si>
+    <t>Update grada koji ima odredjeni id, npr. da mu se promeni naziv, mora biti poslat admin token</t>
+  </si>
+  <si>
+    <t>Response daje status 200, sto znaci da su korisnici uspesno prikazani</t>
+  </si>
+  <si>
+    <t>Za pregled svih korisnika, npr na strani 1, mora biti poslat admin token</t>
+  </si>
+  <si>
+    <t>Da se kreira novi korisnik, mora biti poslat admin token</t>
+  </si>
+  <si>
+    <t>Response daje status 200, sto znaci da je korisnik uspesno izbrisan</t>
+  </si>
+  <si>
+    <t>Da se obrise korisnik koji ima odredjeni id, mora biti poslat admin token</t>
+  </si>
+  <si>
+    <t>Response daje status 200, sto znaci da je korisnik uspesno prikazan</t>
+  </si>
+  <si>
+    <t>Da se azuriraju svi podaci korisnika koji ima odredjeni id, mora biti poslat admin token</t>
   </si>
 </sst>
 </file>
@@ -171,7 +320,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -201,10 +350,25 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -216,10 +380,36 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -228,7 +418,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -243,13 +433,52 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -261,10 +490,19 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -276,10 +514,23 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -288,11 +539,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -302,50 +555,7 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -358,7 +568,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -366,47 +576,60 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -518,6 +741,865 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2380954</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>552450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8578ED9-CC58-4A15-A271-5E356648905B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect l="7631" b="17533"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6867525" y="1247775"/>
+          <a:ext cx="2190454" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2400024</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>533344</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA047BA4-B1EA-49C2-A6BC-561A7DDEF807}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6867525" y="904875"/>
+          <a:ext cx="2209524" cy="447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1942882</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>380957</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{308AF760-220F-4CB7-8977-E993F75192D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6877050" y="2124075"/>
+          <a:ext cx="1742857" cy="342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3580956</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>904773</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A99D019-775E-44E0-B0BA-E314F4EFB552}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="5010150"/>
+          <a:ext cx="3552381" cy="819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2495244</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>304764</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C47A310-1213-40D5-82BE-550062FC323A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6724650" y="5905500"/>
+          <a:ext cx="2447619" cy="285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1828580</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>323810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F8ECB06-A6C0-4D17-A6BC-E0A2DA0DCBEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6743700" y="6210300"/>
+          <a:ext cx="1761905" cy="323810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2523817</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>304764</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF031487-3469-487F-ACD9-632A4968409D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6734175" y="6553200"/>
+          <a:ext cx="2466667" cy="285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2523817</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>409539</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5475293F-A8B0-4E4B-95E7-9465F94210A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6734175" y="6981825"/>
+          <a:ext cx="2466667" cy="285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2733338</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>714292</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA4BDDC6-38C4-438A-873A-955637885B69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6715125" y="8543925"/>
+          <a:ext cx="2695238" cy="666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2638099</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>695243</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E72A09F-4F2D-412B-9F4F-9BB97C8D1786}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="8210550"/>
+          <a:ext cx="2609524" cy="657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2723818</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>352392</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22ACA2B0-4CD4-4A95-880C-A010BDF01A66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6743700" y="7591425"/>
+          <a:ext cx="2657143" cy="266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1342874</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>333338</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{855A8334-C415-4081-898F-470227C05A58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6810375" y="9629775"/>
+          <a:ext cx="1209524" cy="295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2609542</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>285723</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D18F6D90-9915-44AE-98B6-5A78AB95FC61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6819900" y="3048000"/>
+          <a:ext cx="2466667" cy="219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2676525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63DEE471-618E-4229-853F-90E236F22BA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6781800" y="3409950"/>
+          <a:ext cx="2571750" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2752725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3F37C39-4177-445B-972F-C9F117C61797}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6762750" y="3771900"/>
+          <a:ext cx="2667000" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1323819</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>295242</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE6DB4FF-38AD-46F2-833F-7E6A2E69B96A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6753225" y="4105275"/>
+          <a:ext cx="1247619" cy="266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2543175</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD79900A-37ED-4A23-869C-B1DFD656901F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6762750" y="4438650"/>
+          <a:ext cx="2457450" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2638425</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>409575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C60E4D0-9CEB-4C52-BCEC-E488E7546106}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6734175" y="5162550"/>
+          <a:ext cx="2581275" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -729,7 +1811,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -738,86 +1820,104 @@
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
     <col min="3" max="3" width="30.5703125" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="5" width="50.42578125" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="54.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="21" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="15"/>
+      <c r="C3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="9" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="15"/>
+      <c r="C4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="9" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="15"/>
+      <c r="C5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="9" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -829,197 +1929,305 @@
       <c r="D6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="14" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="15"/>
+      <c r="C7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="9" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="15"/>
+      <c r="C8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="9" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="15"/>
+      <c r="C9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="9" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="15"/>
+      <c r="C10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="9" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="15"/>
+      <c r="C11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="9" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="15"/>
+      <c r="C12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="9" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:6" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="15"/>
+      <c r="C13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="14" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="15"/>
+      <c r="C14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="9" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="15"/>
+      <c r="C15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="9" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="15"/>
+      <c r="C16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="9" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="15"/>
+      <c r="C17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="15"/>
+      <c r="C18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="15"/>
+      <c r="C19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="9" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="15"/>
+      <c r="C20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="9" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="21" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="16"/>
+      <c r="C21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{C127B3B8-3DA4-4F5B-8E04-07320921A660}"/>
     <hyperlink ref="F6" r:id="rId2" xr:uid="{02DD60A5-16D1-483E-B141-0D0631DCB2A5}"/>
+    <hyperlink ref="F7" r:id="rId3" xr:uid="{36B407F5-616D-417B-9999-D6AA83286B92}"/>
+    <hyperlink ref="F3" r:id="rId4" xr:uid="{BD62A3BE-41A1-4C10-B10F-82F4196FF921}"/>
+    <hyperlink ref="F4" r:id="rId5" xr:uid="{8889F2DB-E508-4D9C-AC01-1FCFAE77C674}"/>
+    <hyperlink ref="F5" r:id="rId6" xr:uid="{0C67F939-974D-4870-B698-00BC275BB31C}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{D0CD1CBE-7561-4648-B25D-F52A58DEFAEB}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{0C1AAA2C-BDC4-489C-85F9-731D60D79549}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{15396C2A-CE08-47BA-A81D-CA49DBF509FE}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{DC0A8FA0-0BF3-4450-817A-FA9EF8A44FA5}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{75450BE0-4104-4E6A-9A03-C0E2F7F5FFA9}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{C168EF18-2EC5-4B2C-9697-EA018BF20BE1}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{2F7A80E7-4274-48DD-9CDB-DF42A603D3CA}"/>
+    <hyperlink ref="F16" r:id="rId14" xr:uid="{53D40B42-551D-4206-9227-6D353E0619D0}"/>
+    <hyperlink ref="F17" r:id="rId15" xr:uid="{105BF701-C7B8-4984-8256-011A002AD57D}"/>
+    <hyperlink ref="F19" r:id="rId16" xr:uid="{4DA1BCB4-423C-4B97-AC3E-242EF6ED6609}"/>
+    <hyperlink ref="F20" r:id="rId17" xr:uid="{4C67A7D3-50E9-4DF7-AC8E-E75E2F9CE049}"/>
+    <hyperlink ref="F21" r:id="rId18" xr:uid="{BA01D49F-0D3B-4B77-A72D-7132B1039136}"/>
+    <hyperlink ref="F18" r:id="rId19" xr:uid="{924E7F73-608A-4BF0-A22D-26FABBEBFABF}"/>
+    <hyperlink ref="F15" r:id="rId20" xr:uid="{C82A9562-0F50-45C3-A362-DCC2D4E4582B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId21"/>
 </worksheet>
 </file>